--- a/Documents/LED_StarLiteUP_Instruction.xlsx
+++ b/Documents/LED_StarLiteUP_Instruction.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Starlite\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83824D36-8E38-4A14-BB34-47B28C018078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89196E0-0691-455B-8993-1462D808BFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25308" yWindow="348" windowWidth="16800" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5304" yWindow="1092" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orginial" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Red</t>
   </si>
@@ -53,9 +52,6 @@
   </si>
   <si>
     <t>One Nibble</t>
-  </si>
-  <si>
-    <t>White:</t>
   </si>
   <si>
     <t xml:space="preserve">Duration: </t>
@@ -263,9 +259,6 @@
   </si>
   <si>
     <t>Setup before issuing the display instruction set</t>
-  </si>
-  <si>
-    <t>Blue = 13, Green = 13, Red = 13</t>
   </si>
   <si>
     <t>[11:8]</t>
@@ -743,6 +736,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -796,51 +834,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,12 +1201,12 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1232,7 +1225,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7">
         <v>8</v>
@@ -1241,12 +1234,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -1266,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>7</v>
@@ -1280,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>7</v>
@@ -1294,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
@@ -1308,7 +1301,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="str">
@@ -1316,7 +1309,7 @@
         <v>10800000</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1327,40 +1320,40 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="36" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="25">
         <v>0</v>
@@ -1373,20 +1366,20 @@
     </row>
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="28">
         <v>1</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="40">
         <v>2</v>
@@ -1396,97 +1389,97 @@
       <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="68">
+      <c r="A20" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="83">
         <v>3</v>
       </c>
-      <c r="C20" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>64</v>
+      <c r="C20" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>62</v>
       </c>
       <c r="E20" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="81"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="54" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="67"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="70"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="42">
         <v>4</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="68">
+      <c r="A24" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="83">
         <v>5</v>
       </c>
-      <c r="C24" s="74"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="74"/>
+        <v>32</v>
+      </c>
+      <c r="E24" s="89"/>
       <c r="F24" s="2"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="75"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="75"/>
+        <v>33</v>
+      </c>
+      <c r="E25" s="90"/>
       <c r="F25" s="2"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="76"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="76"/>
+        <v>29</v>
+      </c>
+      <c r="E26" s="91"/>
       <c r="F26" s="2"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="25">
         <v>6</v>
@@ -1498,58 +1491,58 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="77">
+      <c r="A28" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="92">
         <v>7</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="74"/>
+        <v>37</v>
+      </c>
+      <c r="E28" s="89"/>
       <c r="F28" s="2"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="75"/>
+        <v>38</v>
+      </c>
+      <c r="E29" s="90"/>
       <c r="F29" s="2"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="82"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="64"/>
-      <c r="E30" s="76"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="2"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="28">
         <v>8</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="2"/>
@@ -1557,76 +1550,76 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="12">
         <v>9</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="83">
+      <c r="A33" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="66">
         <v>10</v>
       </c>
-      <c r="C33" s="85"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="95" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="E33" s="70" t="s">
+        <v>73</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="94"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="96"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="71"/>
       <c r="F34" s="2"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="68">
+        <v>11</v>
+      </c>
+      <c r="C35" s="74"/>
+      <c r="D35" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="76"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="73"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="85">
-        <v>11</v>
-      </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="91"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="88"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="92"/>
+      <c r="E36" s="77"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="25">
         <v>12</v>
@@ -1638,19 +1631,19 @@
     </row>
     <row r="38" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="28">
         <v>13</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D38" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="32" t="s">
         <v>68</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>70</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38"/>
@@ -1698,20 +1691,20 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" s="19"/>
       <c r="C43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" s="50"/>
       <c r="C44" s="51" t="s">
@@ -1746,7 +1739,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -1760,10 +1753,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="23"/>
@@ -1771,15 +1764,9 @@
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24">
-        <v>2</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="A49" s="24"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="13"/>
       <c r="E49" s="23"/>
       <c r="F49" s="2"/>
@@ -1790,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="13"/>
@@ -1803,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -1816,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -1846,14 +1833,6 @@
     <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
@@ -1865,6 +1844,14 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/LED_StarLiteUP_Instruction.xlsx
+++ b/Documents/LED_StarLiteUP_Instruction.xlsx
@@ -8,22 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Starlite\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89196E0-0691-455B-8993-1462D808BFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFBBDF5-A166-4EB3-9612-AA26D3D34394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="1092" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28116" yWindow="1272" windowWidth="15096" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Orginial" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -57,9 +49,6 @@
     <t xml:space="preserve">Duration: </t>
   </si>
   <si>
-    <t>Loop the last x number of commands</t>
-  </si>
-  <si>
     <t>[31:28]</t>
   </si>
   <si>
@@ -76,9 +65,6 @@
   </si>
   <si>
     <t>32 Bits</t>
-  </si>
-  <si>
-    <t>RF Instruction</t>
   </si>
   <si>
     <t>Fade in &amp; out</t>
@@ -118,25 +104,6 @@
     </r>
   </si>
   <si>
-    <t>Qty of commands = loop command line number - start command number. 255 max commands.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15 max </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>Address/Duration/ Loops/Hours On</t>
   </si>
   <si>
@@ -186,35 +153,6 @@
     <t xml:space="preserve">   1 = enable fading</t>
   </si>
   <si>
-    <t xml:space="preserve"> Red=0 current</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Red=1 new</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -255,9 +193,6 @@
     <t>Blackout display</t>
   </si>
   <si>
-    <t>All instruction sets must end with a finish command</t>
-  </si>
-  <si>
     <t>Setup before issuing the display instruction set</t>
   </si>
   <si>
@@ -279,30 +214,18 @@
     <t>Colors In Instructions 4 &amp; 9</t>
   </si>
   <si>
-    <t>Rev 1.7</t>
-  </si>
-  <si>
     <t>Rainbow colors</t>
   </si>
   <si>
-    <t xml:space="preserve">   0 = disable </t>
-  </si>
-  <si>
     <t xml:space="preserve">   1 = enable</t>
   </si>
   <si>
     <t>Brightness</t>
   </si>
   <si>
-    <t xml:space="preserve">   0 = disable point offset </t>
-  </si>
-  <si>
     <t xml:space="preserve">   1 = enable point offset</t>
   </si>
   <si>
-    <t>Uses random color palette</t>
-  </si>
-  <si>
     <t>Hours off: 31 max, 0 once off stay off (default)</t>
   </si>
   <si>
@@ -321,10 +244,66 @@
     <t>Decr upper limit [23:22]</t>
   </si>
   <si>
-    <t>Offset lite command by 1 to each star point, block points</t>
-  </si>
-  <si>
     <t>Block individual points from changing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0 = disable point offset, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0 = disable,</t>
+  </si>
+  <si>
+    <t>15 max</t>
+  </si>
+  <si>
+    <t>Instruction in Hex</t>
+  </si>
+  <si>
+    <t>Rev 1.8</t>
+  </si>
+  <si>
+    <t>Loop the previous x number of instructions</t>
+  </si>
+  <si>
+    <t>Qty of instructions = loop instruction line number - start instruction number. 255 max instructions.</t>
+  </si>
+  <si>
+    <t>Offset lite instruction by 1 to each star point, block points</t>
+  </si>
+  <si>
+    <t>All instruction sets must end with a finish instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0 = current</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 = new</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+  </si>
+  <si>
+    <t>Uses random color palette in Instruction 9</t>
   </si>
 </sst>
 </file>
@@ -554,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -709,15 +688,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,34 +739,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -763,6 +799,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,60 +822,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,12 +1189,12 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1214,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
@@ -1225,7 +1213,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="7">
         <v>8</v>
@@ -1234,15 +1222,15 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
@@ -1251,7 +1239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1259,35 +1247,35 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
@@ -1301,15 +1289,15 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="str">
         <f>CONCATENATE(DEC2HEX(B5,1),DEC2HEX(B6,2),DEC2HEX(B7,2),DEC2HEX(B8,1),DEC2HEX(B9,1),DEC2HEX(B10,1))</f>
-        <v>10800000</v>
+        <v>4084003F</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,40 +1308,40 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="36" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C16" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>31</v>
-      </c>
       <c r="E16" s="34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B17" s="25">
         <v>0</v>
@@ -1366,20 +1354,20 @@
     </row>
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="28">
         <v>1</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" s="40">
         <v>2</v>
@@ -1389,97 +1377,97 @@
       <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="83">
+      <c r="A20" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="70">
         <v>3</v>
       </c>
-      <c r="C20" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="83" t="s">
-        <v>62</v>
+      <c r="C20" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>53</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="84"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="54" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="85"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="42">
         <v>4</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="83">
+      <c r="A24" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="70">
         <v>5</v>
       </c>
-      <c r="C24" s="89"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="89"/>
+        <v>28</v>
+      </c>
+      <c r="E24" s="76"/>
       <c r="F24" s="2"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="96"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="90"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="90"/>
+        <v>29</v>
+      </c>
+      <c r="E25" s="77"/>
       <c r="F25" s="2"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="91"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="91"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="78"/>
       <c r="F26" s="2"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" s="25">
         <v>6</v>
@@ -1491,58 +1479,58 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="92">
+      <c r="A28" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="79">
         <v>7</v>
       </c>
-      <c r="C28" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="89"/>
+      <c r="C28" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="76"/>
       <c r="F28" s="2"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="96"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="90"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="77"/>
       <c r="F29" s="2"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="97"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="91"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="78"/>
       <c r="F30" s="2"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B31" s="28">
         <v>8</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="2"/>
@@ -1550,76 +1538,76 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B32" s="12">
         <v>9</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="D32" s="63"/>
       <c r="E32" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="66">
+      <c r="A33" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="85">
         <v>10</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="70" t="s">
-        <v>73</v>
+      <c r="C33" s="87"/>
+      <c r="D33" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="89" t="s">
+        <v>61</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="79"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="71"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="90"/>
       <c r="F34" s="2"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="68">
+      <c r="A35" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="93">
         <v>11</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="76"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="97"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="77"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="98"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B37" s="25">
         <v>12</v>
@@ -1629,21 +1617,21 @@
       <c r="E37" s="25"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B38" s="28">
         <v>13</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38"/>
@@ -1691,20 +1679,20 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" s="19"/>
       <c r="C43" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B44" s="50"/>
       <c r="C44" s="51" t="s">
@@ -1739,7 +1727,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -1756,7 +1744,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="23"/>
@@ -1777,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="13"/>
@@ -1790,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -1803,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -1833,6 +1821,14 @@
     <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
@@ -1844,14 +1840,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="E24:E26"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/LED_StarLiteUP_Instruction.xlsx
+++ b/Documents/LED_StarLiteUP_Instruction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Starlite\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFBBDF5-A166-4EB3-9612-AA26D3D34394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB855624-FE9E-41BA-9DB7-E94CE71CBD58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28116" yWindow="1272" windowWidth="15096" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>Red</t>
   </si>
@@ -304,6 +304,25 @@
   </si>
   <si>
     <t>Uses random color palette in Instruction 9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Offset size [25:20] </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>For backwards compatability, an offset size of 0 = 1. All others = number entered</t>
   </si>
 </sst>
 </file>
@@ -721,6 +740,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -774,54 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1377,16 +1396,16 @@
       <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="70">
+      <c r="B20" s="86">
         <v>3</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="86" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="43" t="s">
@@ -1394,19 +1413,19 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="71"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="54" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="72"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1429,39 +1448,41 @@
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="70">
+      <c r="B24" s="86">
         <v>5</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="86" t="s">
+        <v>74</v>
+      </c>
       <c r="D24" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="76"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="2"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="77"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="77"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="2"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="78"/>
+      <c r="A26" s="100"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="78"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="2"/>
       <c r="G26"/>
     </row>
@@ -1479,10 +1500,10 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="79">
+      <c r="B28" s="95">
         <v>7</v>
       </c>
       <c r="C28" s="57" t="s">
@@ -1491,31 +1512,31 @@
       <c r="D28" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="76"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="2"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="80"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="58" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="77"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="2"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
-      <c r="B30" s="81"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="59" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="62"/>
-      <c r="E30" s="78"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="2"/>
       <c r="G30"/>
     </row>
@@ -1554,55 +1575,55 @@
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="99" t="s">
+      <c r="A33" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="85">
+      <c r="B33" s="67">
         <v>10</v>
       </c>
-      <c r="C33" s="87"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="89" t="s">
+      <c r="E33" s="71" t="s">
         <v>61</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="100"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="88"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="90"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="2"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="93">
+      <c r="B35" s="75">
         <v>11</v>
       </c>
-      <c r="C35" s="95"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="97"/>
+      <c r="E35" s="79"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="92"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="96"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="80"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1752,8 +1773,12 @@
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="15"/>
+      <c r="A49" s="24">
+        <v>2</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="C49" s="5"/>
       <c r="D49" s="13"/>
       <c r="E49" s="23"/>
@@ -1821,14 +1846,6 @@
     <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
@@ -1840,6 +1857,14 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/LED_StarLiteUP_Instruction.xlsx
+++ b/Documents/LED_StarLiteUP_Instruction.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Starlite\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB855624-FE9E-41BA-9DB7-E94CE71CBD58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92096B49-E2D9-476C-B76B-A3F9DF6D7B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="576" yWindow="756" windowWidth="18216" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Red</t>
   </si>
@@ -323,6 +333,32 @@
   </si>
   <si>
     <t>For backwards compatability, an offset size of 0 = 1. All others = number entered</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3 = new no rep </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>Uses random color palette in Instruction 9, excludes repeating colors</t>
   </si>
 </sst>
 </file>
@@ -740,6 +776,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,60 +877,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,16 +1432,16 @@
       <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="86">
+      <c r="B20" s="70">
         <v>3</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="70" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="43" t="s">
@@ -1413,20 +1449,22 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="87"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="54" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="44"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
@@ -1448,41 +1486,41 @@
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="86">
+      <c r="B24" s="70">
         <v>5</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="70" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="92"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="2"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="99"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="93"/>
+      <c r="E25" s="77"/>
       <c r="F25" s="2"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="100"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="94"/>
+      <c r="E26" s="78"/>
       <c r="F26" s="2"/>
       <c r="G26"/>
     </row>
@@ -1500,10 +1538,10 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="95">
+      <c r="B28" s="79">
         <v>7</v>
       </c>
       <c r="C28" s="57" t="s">
@@ -1512,31 +1550,31 @@
       <c r="D28" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="92"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="2"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="99"/>
-      <c r="B29" s="96"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="58" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="93"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="2"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100"/>
-      <c r="B30" s="97"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="59" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="62"/>
-      <c r="E30" s="94"/>
+      <c r="E30" s="78"/>
       <c r="F30" s="2"/>
       <c r="G30"/>
     </row>
@@ -1575,55 +1613,55 @@
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="67">
+      <c r="B33" s="85">
         <v>10</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="89" t="s">
         <v>61</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="70"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="72"/>
+      <c r="E34" s="90"/>
       <c r="F34" s="2"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="75">
+      <c r="B35" s="93">
         <v>11</v>
       </c>
-      <c r="C35" s="77"/>
+      <c r="C35" s="95"/>
       <c r="D35" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="79"/>
+      <c r="E35" s="97"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="78"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="80"/>
+      <c r="E36" s="98"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1824,7 +1862,17 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="47">
+        <v>6</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="6"/>
+    </row>
     <row r="54" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
@@ -1846,6 +1894,14 @@
     <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
@@ -1857,14 +1913,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="E24:E26"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
